--- a/backend/uploads/ExtractedFiles/27-10-23/1250.xlsx
+++ b/backend/uploads/ExtractedFiles/27-10-23/1250.xlsx
@@ -386,7 +386,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -428,10 +428,10 @@
         <v>45226</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>9.11</v>
       </c>
       <c r="E2">
-        <v>18.09</v>
+        <v>18.2</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
